--- a/REPU-Index.xlsx
+++ b/REPU-Index.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoDongcui\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MoDongcui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F603F3D-4F0D-4D77-A254-13A1102ACDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E93C61-E7BF-4356-9196-3495C2075F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chinese REPU Index" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -398,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C259"/>
+  <dimension ref="A1:C271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="F254" sqref="F254"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3194,24 +3202,98 @@
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="2"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="3"/>
+      <c r="A254" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+      <c r="C254" s="3">
+        <v>255.1369</v>
+      </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="2"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="3"/>
-    </row>
-    <row r="257" spans="1:1" ht="15" customHeight="1">
-      <c r="A257" s="4"/>
-    </row>
-    <row r="258" spans="1:1" ht="15" customHeight="1">
-      <c r="A258" s="4" t="s">
+      <c r="A255" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B255" s="2">
+        <v>2</v>
+      </c>
+      <c r="C255" s="3">
+        <v>299.08449999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B256" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" ht="15" customHeight="1"/>
+      <c r="C256" s="1">
+        <v>305.64109999999999</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15" customHeight="1">
+      <c r="A257" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B257" s="2">
+        <v>4</v>
+      </c>
+      <c r="C257" s="1">
+        <v>401.53620000000001</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15" customHeight="1">
+      <c r="A258" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B258" s="2">
+        <v>5</v>
+      </c>
+      <c r="C258" s="1">
+        <v>344.9735</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15" customHeight="1">
+      <c r="A259" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B259" s="2">
+        <v>6</v>
+      </c>
+      <c r="C259" s="1">
+        <v>310.60809999999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B260" s="2">
+        <v>7</v>
+      </c>
+      <c r="C260" s="1">
+        <v>237.57220000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B261" s="2">
+        <v>8</v>
+      </c>
+      <c r="C261" s="1">
+        <v>384.66079999999999</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="14.65">
+      <c r="A271" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
